--- a/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Jour 1 A" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Jour 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Jour 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,62 +12,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Journal de bord TPI Davila 2020</t>
   </si>
   <si>
     <t xml:space="preserve">INFORMATIONS GENERALES
-Date : 
-Elèves présents :
+Date : 25/05/2020
+Elèves : Davila Lou
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ENSEIGNANTS PRESENTS :
-AUTRES INTERVENANTS : </t>
-  </si>
-  <si>
     <r>
       <t>ÉTAPE DU PROJET</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Analyse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="10.0"/>
       </rPr>
-      <t>( selon le planning établi)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BILAN : </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>( Où en est le projet ?)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
+      <t>La phase d'analyse est grandement avancée et sera fini demain</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">
 Réalisé :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Lecture de l'énoncé, Planification, Maquettage des vues, Une partie de la doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
 A réaliser :</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation d'analyse, MCD, création des utilisateurs de la base, Mise en place de la structure du projet</t>
+    </r>
   </si>
   <si>
     <r>
@@ -74,11 +78,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">( Le projet est-il freiné ou bloqué, pourquoi ?)  </t>
+      <t xml:space="preserve">Pas de difficulté  </t>
     </r>
   </si>
   <si>
@@ -87,25 +90,134 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> (Comment surmonter cette difficulté ? Qui fait quoi ?)</t>
-    </r>
-  </si>
-  <si>
-    <t>PROCHAINE ÉTAPE DU PROJET :</t>
-  </si>
-  <si>
-    <t>Observations particulières :</t>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Finition de l'analyse/Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Observations particulières : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>J'ai du refaire mes maquettes après avoir constaté qu'elles contenaient du français ET de l'anglais, j'ai donc uniformisé le tout ce qui m'a pris un peu plus de temps que prévu</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 26/05/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Analyse/Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>La phase d'analyse est terminée et l'implémentation commencée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Lecture de l'énoncé, Planification, Maquettage des vues, Une partie de la doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation d'analyse, MCD, création des utilisateurs de la base, Mise en place de la structure du projet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Pas de difficulté  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Finition de l'analyse/Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Observations particulières : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>J'ai du refaire mes maquettes après avoir constaté qu'elles contenaient du français ET de l'anglais, j'ai donc uniformisé le tout ce qui m'a pris un peu plus de temps que prévu</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -126,6 +238,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,8 +257,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -175,6 +302,22 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -183,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -194,16 +337,26 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -213,6 +366,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -455,243 +612,536 @@
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="132.0" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" ht="143.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="129.0" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="107.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="108.0" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="114.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="164.25" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
@@ -18,6 +18,116 @@
   </si>
   <si>
     <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 26/05/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Analyse/Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>La phase d'analyse est terminée et l'implémentation commencée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Création du MCD, création des utilisateurs de la base, mise en place de la structure du projet,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>documentation d'analyse + doc technique,Implémentation BDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation technique,réalisation des Manager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Pas de difficulté  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Observations particulières : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>rdv journalier de 16 à 17h45 avec monsieur Aigroz. J'ai également ajouter de nouvelles maquettes et modifié certaines d'entre elles.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
 Date : 25/05/2020
 Elèves : Davila Lou
 </t>
@@ -111,105 +221,7 @@
     </r>
     <r>
       <rPr/>
-      <t>J'ai du refaire mes maquettes après avoir constaté qu'elles contenaient du français ET de l'anglais, j'ai donc uniformisé le tout ce qui m'a pris un peu plus de temps que prévu</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">INFORMATIONS GENERALES
-Date : 26/05/2020
-Elèves : Davila Lou
-</t>
-  </si>
-  <si>
-    <r>
-      <t>ÉTAPE DU PROJET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> : Analyse/Implémentation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BILAN : </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>La phase d'analyse est terminée et l'implémentation commencée</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">
-Réalisé :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Lecture de l'énoncé, Planification, Maquettage des vues, Une partie de la doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">
-A réaliser :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> Documentation d'analyse, MCD, création des utilisateurs de la base, Mise en place de la structure du projet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Pas de difficulté  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SOLUTIONS PROPOSÉES :</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>Finition de l'analyse/Implémentation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Observations particulières : </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>J'ai du refaire mes maquettes après avoir constaté qu'elles contenaient du français ET de l'anglais, j'ai donc uniformisé le tout ce qui m'a pris un peu plus de temps que prévu</t>
+      <t>J'ai du refaire mes maquettes après avoir constaté qu'elles contenaient du français ET de l'anglais, j'ai donc uniformisé le tout ce qui m'a pris un peu plus de temps que prévu. J'ai également assisté au rdv journalier à 16h avec Monsieur Aigroz afin de faire le point sur cette première journée.</t>
     </r>
   </si>
 </sst>
@@ -234,14 +246,14 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -346,17 +358,17 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -639,8 +651,8 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="132.0" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
+      <c r="A3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -670,7 +682,7 @@
     </row>
     <row r="4" ht="143.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -699,10 +711,10 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="129.0" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -729,10 +741,10 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="107.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -759,10 +771,10 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="108.0" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -789,10 +801,10 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="114.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -819,10 +831,10 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="164.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -934,8 +946,8 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="132.0" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -965,7 +977,7 @@
     </row>
     <row r="4" ht="143.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -994,10 +1006,10 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="129.0" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1024,10 +1036,10 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="107.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1054,10 +1066,10 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="108.0" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1084,10 +1096,10 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="114.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1114,10 +1126,10 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="164.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>

--- a/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
@@ -5,6 +5,14 @@
   <sheets>
     <sheet state="visible" name="Jour 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Jour 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Jour 3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Jour 4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Jour 5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Jour 6" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Jour 7" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Jour 8" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Jour 9" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Jour 10" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,9 +20,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Journal de bord TPI Davila 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 25/05/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Analyse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>La phase d'analyse est en bien avancée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Lecture de l'énoncé, Planification, Maquettage des vues, Une partie de la doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation d'analyse, MCD, création des utilisateurs de la base,Fin de maquettage des vues, Mise en place de la structure du projet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Pas de difficulté  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Finition de l'analyse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Observations particulières : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>J'ai du refaire mes maquettes après avoir constaté qu'elles contenaient du français ET de l'anglais, j'ai donc uniformisé le tout ce qui m'a pris un peu plus de temps que prévu. J'ai également assisté au rdv journalier à 16h avec Monsieur Aigroz afin de faire le point sur cette première journée.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">INFORMATIONS GENERALES
@@ -30,7 +136,7 @@
       <rPr>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> : Analyse/Implémentation</t>
+      <t xml:space="preserve"> : Analyse</t>
     </r>
   </si>
   <si>
@@ -42,7 +148,7 @@
         <i/>
         <sz val="10.0"/>
       </rPr>
-      <t>La phase d'analyse est terminée et l'implémentation commencée</t>
+      <t>La phase d'analyse est terminée</t>
     </r>
     <r>
       <rPr>
@@ -56,7 +162,7 @@
       <rPr>
         <sz val="10.0"/>
       </rPr>
-      <t>Création du MCD, création des utilisateurs de la base, mise en place de la structure du projet,</t>
+      <t>Finalisation des maquettes, Création du MCD, mise en place de la structure du projet,</t>
     </r>
     <r>
       <rPr>
@@ -68,7 +174,7 @@
       <rPr>
         <sz val="10.0"/>
       </rPr>
-      <t>documentation d'analyse + doc technique,Implémentation BDD</t>
+      <t>documentation d'analyse + doc technique</t>
     </r>
     <r>
       <rPr>
@@ -81,7 +187,7 @@
       <rPr>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> Documentation technique,réalisation des Manager</t>
+      <t xml:space="preserve"> Documentation technique,Implémentation BDD,Création des utilisateurs de la base de données,Réalisation des Managers</t>
     </r>
   </si>
   <si>
@@ -128,7 +234,7 @@
   </si>
   <si>
     <t xml:space="preserve">INFORMATIONS GENERALES
-Date : 25/05/2020
+Date : 27/05/2020
 Elèves : Davila Lou
 </t>
   </si>
@@ -140,7 +246,7 @@
       <rPr>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> : Analyse</t>
+      <t xml:space="preserve"> : Implémentation</t>
     </r>
   </si>
   <si>
@@ -152,21 +258,21 @@
         <i/>
         <sz val="10.0"/>
       </rPr>
-      <t>La phase d'analyse est grandement avancée et sera fini demain</t>
+      <t>L'implémentation est commencée</t>
     </r>
     <r>
       <rPr>
         <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">
-Réalisé :
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Implémentation de la BDD, création des utilisateurs de la BDD,début du développement des Managers/classes et doc technique
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Lecture de l'énoncé, Planification, Maquettage des vues, Une partie de la doc</t>
     </r>
     <r>
       <rPr>
@@ -179,7 +285,7 @@
       <rPr>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> Documentation d'analyse, MCD, création des utilisateurs de la base, Mise en place de la structure du projet</t>
+      <t xml:space="preserve"> Documentation technique,Continuer le développement des managers</t>
     </r>
   </si>
   <si>
@@ -212,7 +318,7 @@
     </r>
     <r>
       <rPr/>
-      <t>Finition de l'analyse/Implémentation</t>
+      <t>Implémentation</t>
     </r>
   </si>
   <si>
@@ -221,7 +327,654 @@
     </r>
     <r>
       <rPr/>
-      <t>J'ai du refaire mes maquettes après avoir constaté qu'elles contenaient du français ET de l'anglais, j'ai donc uniformisé le tout ce qui m'a pris un peu plus de temps que prévu. J'ai également assisté au rdv journalier à 16h avec Monsieur Aigroz afin de faire le point sur cette première journée.</t>
+      <t>rdv journalier de 16h15 à 17h30 avec monsieur Aigroz. J'ai eu le rdv à 11h avec les experts.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 28/05/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>La grande partie des Managers est terminée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> les classes conteneurs sont terminées</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Fin des classes conteneurs, finalisation de la plupart des managers, doc technique,finalisation page login et register
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation technique,Continuer le développement des managers,réaliser la page de création d'événement,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Pas de difficulté  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Observations particulières : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>rdv journalier de 16h15 à 17h avec monsieur Aigroz.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 29/05/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>L'ajout d'événement fonctionne on va pouvoir commencer le développement mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Page de création d'événement, continuer l'ajout de fonctions a certains managers, doc technique
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Doc techique, page de modification d'événement,filtrage des événements sur mobile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Pas de difficulté  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Observations particulières :</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> Aucune</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 02/06/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>La doc technique est grandement complétée et le développement mobile commencé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Page de modification,écran de visualisation d'événement sur mobile,filtrage des événements sur mobile, doc technique
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation technique, page de gestion d'événement et du flux, ajout d'un message au flux,affichage des événements sur mobile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Pas de difficulté  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Observations particulières : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Léger retard sur le planning mais pas si grave car à la place j'ai développé des fonctions qui me serviront pour la suite du projet. Rdv M.Aigroz à 17h.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 03/06/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>L'on peut observer les événements de la base sur mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Documentation technique, page de gestion d'événement et du flux, ajout d'un message au flux,affichage des événements sur mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation technique, page de visualisation des événements,écran d'affichage d'un événements sur mobile,suppression d'un événement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Pas de difficulté  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pas de difficulté donc pas de solution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Observations particulières : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 04/06/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>J'ai commencé en avance l'affichage mobile d'un flux de message mais je suis actuellement bloqué</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Documentation technique, page de visualisation des événements,écran d'affichage d'un événements sur mobile,suppression d'un événement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>, début d'affichage du flux d'un événement sur mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Documentation technique, suite affichage du flux d'un événement sur mobile,début du protocol de test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Éventuelle(s) DIFFICULTÉ(S) :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Difficulté a afficher les messages du flux sous android</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Lecture d'un article sur internet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Implémentation</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 05/06/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Implémentation/début de tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>J'ai eu du mal a finir l'affichage du flux de message sur mobile mais j'ai fini on commence la phase de tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Documentation technique, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>continuer l'affichage mobile du flux d'un événement, début de la mise en place du protocol de test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A réaliser :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> Fin du protocol de test, effectuer le rapport de test,doc technique</t>
+    </r>
+  </si>
+  <si>
+    <t>Éventuelle(s) DIFFICULTÉ(S) :</t>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Tests</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 08/06/2020
+Elèves : Davila Lou
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ÉTAPE DU PROJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> : Tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BILAN : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Le projet est terminé, préparation à l'oral de tpi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Réalisé :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Beaucoup de documentation !, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>protocol de tests, rapport de tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SOLUTIONS PROPOSÉES :</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROCHAINE ÉTAPE DU PROJET : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>Livraison du projet</t>
     </r>
   </si>
 </sst>
@@ -246,14 +999,14 @@
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -358,17 +1111,17 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -381,7 +1134,39 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -651,8 +1436,8 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="132.0" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -682,7 +1467,7 @@
     </row>
     <row r="4" ht="143.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -711,10 +1496,10 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="129.0" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -741,10 +1526,10 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="107.25" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -771,10 +1556,10 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="108.0" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -801,10 +1586,10 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="114.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -831,10 +1616,305 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="164.25" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -947,7 +2027,7 @@
     </row>
     <row r="3" ht="132.0" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -977,7 +2057,7 @@
     </row>
     <row r="4" ht="143.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
@@ -1006,10 +2086,10 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="129.0" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1036,10 +2116,10 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="107.25" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1066,10 +2146,10 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="108.0" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1096,10 +2176,10 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="114.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1126,10 +2206,10 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="164.25" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1167,4 +2247,2069 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.29"/>
+    <col customWidth="1" min="2" max="2" width="68.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" ht="132.0" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="143.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" ht="129.0" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" ht="107.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" ht="108.0" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" ht="114.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" ht="164.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
+++ b/EvenementsEnDirect/docs/analyse/Journal de bord TPI DAvila 2020.xlsx
@@ -3206,7 +3206,7 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="132.0" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7"/>
